--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2295.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2295.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.847720751271373</v>
+        <v>1.170378684997559</v>
       </c>
       <c r="B1">
-        <v>3.437000812039984</v>
+        <v>2.320566654205322</v>
       </c>
       <c r="C1">
-        <v>3.055365966040532</v>
+        <v>3.227429151535034</v>
       </c>
       <c r="D1">
-        <v>3.356859186148881</v>
+        <v>1.429557681083679</v>
       </c>
       <c r="E1">
-        <v>2.131679217612206</v>
+        <v>1.156444549560547</v>
       </c>
     </row>
   </sheetData>
